--- a/biology/Botanique/Vignoble_du_Pays-de-Bade/Vignoble_du_Pays-de-Bade.xlsx
+++ b/biology/Botanique/Vignoble_du_Pays-de-Bade/Vignoble_du_Pays-de-Bade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pays de Bade, dans le Bade-Wurtemberg, est la troisième région viticole d'Allemagne avec 15 000 hectares de vigne produisant 12 % de la production viticole outre-Rhin. Le vignoble entre Baden-Baden et le Lac de Constance produit, avant tout, des vins blancs.
 Sur la rive septentrionale du lac de Constance, entre Überlingen et Immenstaad, autour de Meersburg, et sur l'île de Reichenau. On y trouve le vignoble "le plus haut" d'Allemagne (570 mètres sur les pentes du Hohentwiel).
